--- a/medicine/Enfance/Pierrot_(périodique)/Pierrot_(périodique).xlsx
+++ b/medicine/Enfance/Pierrot_(périodique)/Pierrot_(périodique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pierrot_(p%C3%A9riodique)</t>
+          <t>Pierrot_(périodique)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pierrot est un magazine français publié par les éditions de Montsouris de 1925 à 1957, avec un arrêt pendant la Seconde Guerre mondiale. De 1958 à 1960, il est rebaptisé Champion. Destiné aux jeunes garçons, il est conçu pour faire pendant à Lisette du même éditeur.
-En 1929, Jean des Cognets, directeur des éditions de Montsouris et de L'Ouest-Éclair, leur maison-mère, propose à Marcel Jeanjean, aviateur, héros de la Grande Guerre, écrivain et illustrateur, de tenir dans Pierrot une rubrique de 12 pages intitulée « Parlons d'aviation ». Devant le succès des premières livraisons, la pagination de la rubrique est doublée. Elle durera 18 ans[1].
+En 1929, Jean des Cognets, directeur des éditions de Montsouris et de L'Ouest-Éclair, leur maison-mère, propose à Marcel Jeanjean, aviateur, héros de la Grande Guerre, écrivain et illustrateur, de tenir dans Pierrot une rubrique de 12 pages intitulée « Parlons d'aviation ». Devant le succès des premières livraisons, la pagination de la rubrique est doublée. Elle durera 18 ans.
 De 1941 à 1951 paraît également sous le même titre une collection de romans.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pierrot_(p%C3%A9riodique)</t>
+          <t>Pierrot_(périodique)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Pierrot (collection)</t>
         </is>
